--- a/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
+++ b/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
+++ b/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C29" s="41" t="n"/>
       <c r="D29" s="43" t="n">
-        <v>201.233</v>
+        <v>348.194</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="17">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C30" s="41" t="n"/>
       <c r="D30" s="43" t="n">
-        <v>250</v>
+        <v>368.347</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="17">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C31" s="41" t="n"/>
       <c r="D31" s="43" t="n">
-        <v>229.232</v>
+        <v>396.64</v>
       </c>
     </row>
     <row r="33">
@@ -1057,17 +1057,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
+++ b/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
+++ b/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C29" s="41" t="n"/>
       <c r="D29" s="43" t="n">
-        <v>348.194</v>
+        <v>201.233</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="17">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C30" s="41" t="n"/>
       <c r="D30" s="43" t="n">
-        <v>368.347</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="17">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C31" s="41" t="n"/>
       <c r="D31" s="43" t="n">
-        <v>396.64</v>
+        <v>229.232</v>
       </c>
     </row>
     <row r="33">
@@ -1057,17 +1057,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
+++ b/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1057,17 +1057,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
+++ b/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1057,17 +1057,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
+++ b/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1057,17 +1057,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
+++ b/server/LISTAS/mi/BISAGRAS FICHAS carpintero.xlsx
@@ -882,7 +882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C29" s="41" t="n"/>
       <c r="D29" s="43" t="n">
-        <v>201.233</v>
+        <v>348.194</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="17">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C30" s="41" t="n"/>
       <c r="D30" s="43" t="n">
-        <v>250</v>
+        <v>368.347</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="17">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C31" s="41" t="n"/>
       <c r="D31" s="43" t="n">
-        <v>229.232</v>
+        <v>396.64</v>
       </c>
     </row>
     <row r="33">
@@ -1057,17 +1057,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
